--- a/teste_Latam.xlsx
+++ b/teste_Latam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dato\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D3051-35B7-41C9-8221-0442BDDEEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE307D7-22B3-4D58-9533-7B699DF06A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{98DD9042-BC85-4221-A12F-23D7062EFBD5}"/>
   </bookViews>
@@ -54,8 +54,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -83,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF2C7D0-1AC0-4BC7-B0B8-9A6496FDAFBB}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,38 +466,8 @@
         <v>12801530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>570052</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3">
-        <v>12801530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>570052</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <v>12801530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>570052</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5">
-        <v>12801530</v>
-      </c>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/teste_Latam.xlsx
+++ b/teste_Latam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dato\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE307D7-22B3-4D58-9533-7B699DF06A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B68C69-70E2-428E-BDEC-DF8489378C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{98DD9042-BC85-4221-A12F-23D7062EFBD5}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF2C7D0-1AC0-4BC7-B0B8-9A6496FDAFBB}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +441,7 @@
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,19 +455,497 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>570052</v>
+        <v>570024</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
       <c r="C2">
-        <v>12801530</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+        <v>48353196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>570025</v>
+      </c>
+      <c r="C3">
+        <v>48353012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>570026</v>
+      </c>
+      <c r="C4">
+        <v>48352872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>570028</v>
+      </c>
+      <c r="C5">
+        <v>48352393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>570031</v>
+      </c>
+      <c r="C6">
+        <v>48277865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>570032</v>
+      </c>
+      <c r="C7">
+        <v>48276815</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>570033</v>
+      </c>
+      <c r="C8">
+        <v>48276141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>570034</v>
+      </c>
+      <c r="C9">
+        <v>48274752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>570035</v>
+      </c>
+      <c r="C10">
+        <v>48273901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>570036</v>
+      </c>
+      <c r="C11">
+        <v>48273105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>570037</v>
+      </c>
+      <c r="C12" s="1">
+        <v>48272490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>570039</v>
+      </c>
+      <c r="C13">
+        <v>48270773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>570041</v>
+      </c>
+      <c r="C14">
+        <v>48268393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>570043</v>
+      </c>
+      <c r="C15">
+        <v>48266105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>570044</v>
+      </c>
+      <c r="C16">
+        <v>48264322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>570045</v>
+      </c>
+      <c r="C17">
+        <v>48263095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>570047</v>
+      </c>
+      <c r="C18">
+        <v>48260715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>570048</v>
+      </c>
+      <c r="C19">
+        <v>48260096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>570049</v>
+      </c>
+      <c r="C20">
+        <v>48259186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>570050</v>
+      </c>
+      <c r="C21">
+        <v>48258372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>570072</v>
+      </c>
+      <c r="C22">
+        <v>48372424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>570073</v>
+      </c>
+      <c r="C23">
+        <v>48371186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>570075</v>
+      </c>
+      <c r="C24">
+        <v>48370464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>570079</v>
+      </c>
+      <c r="C25">
+        <v>48368036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>570081</v>
+      </c>
+      <c r="C26">
+        <v>48365273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>570086</v>
+      </c>
+      <c r="C27">
+        <v>48362274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>570091</v>
+      </c>
+      <c r="C28">
+        <v>48359555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>570098</v>
+      </c>
+      <c r="C29">
+        <v>48356674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>570030</v>
+      </c>
+      <c r="C30">
+        <v>48278381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>570052</v>
+      </c>
+      <c r="C31">
+        <v>48257624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>570076</v>
+      </c>
+      <c r="C32">
+        <v>48370173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>570077</v>
+      </c>
+      <c r="C33">
+        <v>48369370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>570082</v>
+      </c>
+      <c r="C34">
+        <v>48364503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>570085</v>
+      </c>
+      <c r="C35">
+        <v>48362952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>570090</v>
+      </c>
+      <c r="C36">
+        <v>48359964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>570092</v>
+      </c>
+      <c r="C37">
+        <v>48359102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>570093</v>
+      </c>
+      <c r="C38">
+        <v>48358822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>570097</v>
+      </c>
+      <c r="C39">
+        <v>48357035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>570100</v>
+      </c>
+      <c r="C40">
+        <v>48354670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>570022</v>
+      </c>
+      <c r="C41">
+        <v>48353491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>570023</v>
+      </c>
+      <c r="C42">
+        <v>48353244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>570027</v>
+      </c>
+      <c r="C43">
+        <v>48352555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>570029</v>
+      </c>
+      <c r="C44">
+        <v>48279523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>570040</v>
+      </c>
+      <c r="C45">
+        <v>48269760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>570042</v>
+      </c>
+      <c r="C46">
+        <v>48267435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>570046</v>
+      </c>
+      <c r="C47">
+        <v>48262060</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>570051</v>
+      </c>
+      <c r="C48">
+        <v>48256342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>570074</v>
+      </c>
+      <c r="C49">
+        <v>48370803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>570078</v>
+      </c>
+      <c r="C50">
+        <v>48368876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>570080</v>
+      </c>
+      <c r="C51">
+        <v>48367351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>570083</v>
+      </c>
+      <c r="C52">
+        <v>48364223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>570084</v>
+      </c>
+      <c r="C53">
+        <v>48363464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>570087</v>
+      </c>
+      <c r="C54">
+        <v>48361272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>570088</v>
+      </c>
+      <c r="C55">
+        <v>48360756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>570089</v>
+      </c>
+      <c r="C56">
+        <v>48360270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>570094</v>
+      </c>
+      <c r="C57">
+        <v>48358435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>570095</v>
+      </c>
+      <c r="C58">
+        <v>48358122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>570096</v>
+      </c>
+      <c r="C59">
+        <v>48357890</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>570099</v>
+      </c>
+      <c r="C60">
+        <v>48355145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>570101</v>
+      </c>
+      <c r="C61">
+        <v>48354541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>570102</v>
+      </c>
+      <c r="C62">
+        <v>48354342</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
